--- a/supplementalData/Table S2.xlsx
+++ b/supplementalData/Table S2.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danny/Dropbox/_Manuscripts/16 Species Paper/_ToSubmit/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danny/projects/GitHub/Drosophila14GenomesProject/supplementalData/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F2117FD-1900-8545-B2CD-3345B0AB7F8E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3580" yWindow="2560" windowWidth="27240" windowHeight="16440"/>
+    <workbookView xWindow="3580" yWindow="2560" windowWidth="27240" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TableS2-AllSequencingReads" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="37">
   <si>
     <t>Total, all reads</t>
   </si>
@@ -72,9 +73,6 @@
   </si>
   <si>
     <t>D. mauritiana</t>
-  </si>
-  <si>
-    <t>D. kikkawai</t>
   </si>
   <si>
     <t>D. eugracilis</t>
@@ -143,7 +141,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -228,10 +226,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -548,14 +546,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y122"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Y118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="V19" sqref="V19"/>
+      <selection pane="bottomRight" activeCell="W79" sqref="W79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -588,113 +586,113 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="D3" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
+      <c r="D3" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
       <c r="H3" s="10"/>
-      <c r="I3" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
+      <c r="I3" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
       <c r="L3" s="10"/>
-      <c r="M3" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
+      <c r="M3" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
       <c r="P3" s="10"/>
-      <c r="Q3" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
+      <c r="Q3" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
       <c r="T3" s="10"/>
-      <c r="U3" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="V3" s="11"/>
-      <c r="W3" s="11"/>
+      <c r="U3" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="V3" s="12"/>
+      <c r="W3" s="12"/>
       <c r="X3" s="10"/>
       <c r="Y3"/>
     </row>
     <row r="4" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L4" s="7"/>
       <c r="M4" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N4" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P4" s="7"/>
       <c r="Q4" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R4" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S4" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T4" s="7"/>
       <c r="U4" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="V4" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="W4" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X4" s="7"/>
       <c r="Y4" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" s="3">
         <v>1</v>
@@ -876,7 +874,7 @@
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" s="3">
         <v>1</v>
@@ -1058,7 +1056,7 @@
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" s="3">
         <v>1</v>
@@ -1363,7 +1361,7 @@
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20" s="3">
         <v>1</v>
@@ -1668,7 +1666,7 @@
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B27" s="3">
         <v>1</v>
@@ -1973,7 +1971,7 @@
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B34" s="3">
         <v>1</v>
@@ -1982,55 +1980,55 @@
         <v>5</v>
       </c>
       <c r="D34" s="2">
-        <v>18.779441227402472</v>
+        <v>32.648471684610513</v>
       </c>
       <c r="E34" s="2">
-        <v>18.681545941960039</v>
+        <v>32.095354021532614</v>
       </c>
       <c r="F34" s="2">
-        <v>13.132521417697431</v>
+        <v>17.135057682077264</v>
       </c>
       <c r="G34" s="2">
-        <v>2.4689275214081827</v>
+        <v>2.6713217226092465E-2</v>
       </c>
       <c r="I34" s="1">
-        <v>409756</v>
+        <v>852775</v>
       </c>
       <c r="J34" s="1">
-        <v>3947438546</v>
+        <v>5155193679</v>
       </c>
       <c r="K34" s="1">
-        <v>9634</v>
+        <v>6045</v>
       </c>
       <c r="M34" s="1">
-        <v>379831</v>
+        <v>717219</v>
       </c>
       <c r="N34" s="1">
-        <v>3926860957</v>
+        <v>5067856400</v>
       </c>
       <c r="O34" s="1">
-        <v>10338</v>
+        <v>7066</v>
       </c>
       <c r="Q34" s="1">
-        <v>120668</v>
+        <v>175669</v>
       </c>
       <c r="R34" s="1">
-        <v>2760456002</v>
+        <v>2705625608</v>
       </c>
       <c r="S34" s="1">
-        <v>22876</v>
+        <v>15402</v>
       </c>
       <c r="U34" s="1">
-        <v>7512</v>
+        <v>70</v>
       </c>
       <c r="V34" s="1">
-        <v>518968565</v>
+        <v>4218017</v>
       </c>
       <c r="W34" s="1">
-        <v>69085</v>
+        <v>60257</v>
       </c>
       <c r="Y34" s="1">
-        <v>238837</v>
+        <v>93106</v>
       </c>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.2">
@@ -2042,55 +2040,55 @@
         <v>4</v>
       </c>
       <c r="D35" s="2">
-        <v>1.7505063891531873</v>
+        <v>5.5769547371754271</v>
       </c>
       <c r="E35" s="2">
-        <v>1.7297574357754519</v>
+        <v>5.4281600886637111</v>
       </c>
       <c r="F35" s="2">
-        <v>1.0454973168411037</v>
+        <v>2.4957134705509816</v>
       </c>
       <c r="G35" s="2">
-        <v>0.13397604662226451</v>
+        <v>3.3145598480050667E-3</v>
       </c>
       <c r="I35" s="1">
-        <v>53073</v>
+        <v>185181</v>
       </c>
       <c r="J35" s="1">
-        <v>367956443</v>
+        <v>880601153</v>
       </c>
       <c r="K35" s="1">
-        <v>6933</v>
+        <v>4755</v>
       </c>
       <c r="M35" s="1">
-        <v>45643</v>
+        <v>135982</v>
       </c>
       <c r="N35" s="1">
-        <v>363595013</v>
+        <v>857106478</v>
       </c>
       <c r="O35" s="1">
-        <v>7966</v>
+        <v>6303</v>
       </c>
       <c r="Q35" s="1">
-        <v>10588</v>
+        <v>26777</v>
       </c>
       <c r="R35" s="1">
-        <v>219763536</v>
+        <v>394073157</v>
       </c>
       <c r="S35" s="1">
-        <v>20756</v>
+        <v>14717</v>
       </c>
       <c r="U35" s="1">
-        <v>434</v>
+        <v>9</v>
       </c>
       <c r="V35" s="1">
-        <v>28161765</v>
+        <v>523369</v>
       </c>
       <c r="W35" s="1">
-        <v>64889</v>
+        <v>58152</v>
       </c>
       <c r="Y35" s="1">
-        <v>144090</v>
+        <v>69180</v>
       </c>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.2">
@@ -2099,55 +2097,55 @@
         <v>3</v>
       </c>
       <c r="D36" s="2">
-        <v>20.52994761655566</v>
+        <v>38.22542642178594</v>
       </c>
       <c r="E36" s="2">
-        <v>20.411303377735489</v>
+        <v>37.523514110196324</v>
       </c>
       <c r="F36" s="2">
-        <v>14.178018734538535</v>
+        <v>19.630771152628245</v>
       </c>
       <c r="G36" s="2">
-        <v>2.6029035680304471</v>
+        <v>3.0027777074097529E-2</v>
       </c>
       <c r="I36" s="1">
-        <v>462829</v>
+        <v>1037956</v>
       </c>
       <c r="J36" s="1">
-        <v>4315394989</v>
+        <v>6035794832</v>
       </c>
       <c r="K36" s="1">
-        <v>9323.951154746137</v>
+        <v>5815.0777412530015</v>
       </c>
       <c r="M36" s="1">
-        <v>425474</v>
+        <v>853201</v>
       </c>
       <c r="N36" s="1">
-        <v>4290455970</v>
+        <v>5924962878</v>
       </c>
       <c r="O36" s="1">
-        <v>10083.943954272176</v>
+        <v>6944.3927960703277</v>
       </c>
       <c r="Q36" s="1">
-        <v>131256</v>
+        <v>202446</v>
       </c>
       <c r="R36" s="1">
-        <v>2980219538</v>
+        <v>3099698765</v>
       </c>
       <c r="S36" s="1">
-        <v>22705.396614250014</v>
+        <v>15311.237391699515</v>
       </c>
       <c r="U36" s="1">
-        <v>7946</v>
+        <v>79</v>
       </c>
       <c r="V36" s="1">
-        <v>547130330</v>
+        <v>4741386</v>
       </c>
       <c r="W36" s="1">
-        <v>68856.069720614149</v>
+        <v>60017.544303797469</v>
       </c>
       <c r="Y36" s="1">
-        <v>238837</v>
+        <v>93106</v>
       </c>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.2">
@@ -2155,7 +2153,7 @@
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B38" s="3">
         <v>1</v>
@@ -2164,55 +2162,55 @@
         <v>5</v>
       </c>
       <c r="D38" s="2">
-        <v>32.648471684610513</v>
+        <v>18.164547263980758</v>
       </c>
       <c r="E38" s="2">
-        <v>32.095354021532614</v>
+        <v>16.840666897173783</v>
       </c>
       <c r="F38" s="2">
-        <v>17.135057682077264</v>
+        <v>4.1046927179795549</v>
       </c>
       <c r="G38" s="2">
-        <v>2.6713217226092465E-2</v>
+        <v>1.4877029464822609E-3</v>
       </c>
       <c r="I38" s="1">
-        <v>852775</v>
+        <v>1021611</v>
       </c>
       <c r="J38" s="1">
-        <v>5155193679</v>
+        <v>3020764210</v>
       </c>
       <c r="K38" s="1">
-        <v>6045</v>
+        <v>2957</v>
       </c>
       <c r="M38" s="1">
-        <v>717219</v>
+        <v>642806</v>
       </c>
       <c r="N38" s="1">
-        <v>5067856400</v>
+        <v>2800602905</v>
       </c>
       <c r="O38" s="1">
-        <v>7066</v>
+        <v>4357</v>
       </c>
       <c r="Q38" s="1">
-        <v>175669</v>
+        <v>51154</v>
       </c>
       <c r="R38" s="1">
-        <v>2705625608</v>
+        <v>682610399</v>
       </c>
       <c r="S38" s="1">
-        <v>15402</v>
+        <v>13344</v>
       </c>
       <c r="U38" s="1">
-        <v>70</v>
+        <v>4</v>
       </c>
       <c r="V38" s="1">
-        <v>4218017</v>
+        <v>247405</v>
       </c>
       <c r="W38" s="1">
-        <v>60257</v>
+        <v>61851</v>
       </c>
       <c r="Y38" s="1">
-        <v>93106</v>
+        <v>78442</v>
       </c>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.2">
@@ -2224,360 +2222,360 @@
         <v>4</v>
       </c>
       <c r="D39" s="2">
-        <v>5.5769547371754271</v>
+        <v>4.7885287552615754</v>
       </c>
       <c r="E39" s="2">
-        <v>5.4281600886637111</v>
+        <v>4.1315842032471437</v>
       </c>
       <c r="F39" s="2">
-        <v>2.4957134705509816</v>
+        <v>0.622956067348166</v>
       </c>
       <c r="G39" s="2">
-        <v>3.3145598480050667E-3</v>
+        <v>1.1112567648827421E-3</v>
       </c>
       <c r="I39" s="1">
-        <v>185181</v>
+        <v>421607</v>
       </c>
       <c r="J39" s="1">
-        <v>880601153</v>
+        <v>796332332</v>
       </c>
       <c r="K39" s="1">
-        <v>4755</v>
+        <v>1889</v>
       </c>
       <c r="M39" s="1">
-        <v>135982</v>
+        <v>193917</v>
       </c>
       <c r="N39" s="1">
-        <v>857106478</v>
+        <v>687082453</v>
       </c>
       <c r="O39" s="1">
-        <v>6303</v>
+        <v>3543</v>
       </c>
       <c r="Q39" s="1">
-        <v>26777</v>
+        <v>8000</v>
       </c>
       <c r="R39" s="1">
-        <v>394073157</v>
+        <v>103597594</v>
       </c>
       <c r="S39" s="1">
-        <v>14717</v>
+        <v>12950</v>
       </c>
       <c r="U39" s="1">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="V39" s="1">
-        <v>523369</v>
+        <v>184802</v>
       </c>
       <c r="W39" s="1">
-        <v>58152</v>
+        <v>61601</v>
       </c>
       <c r="Y39" s="1">
-        <v>69180</v>
+        <v>75924</v>
       </c>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A40" s="4"/>
-      <c r="C40" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D40" s="2">
-        <v>38.22542642178594</v>
-      </c>
-      <c r="E40" s="2">
-        <v>37.523514110196324</v>
-      </c>
-      <c r="F40" s="2">
-        <v>19.630771152628245</v>
-      </c>
-      <c r="G40" s="2">
-        <v>3.0027777074097529E-2</v>
-      </c>
-      <c r="I40" s="1">
-        <v>1037956</v>
-      </c>
-      <c r="J40" s="1">
-        <v>6035794832</v>
-      </c>
-      <c r="K40" s="1">
-        <v>5815.0777412530015</v>
-      </c>
-      <c r="M40" s="1">
-        <v>853201</v>
-      </c>
-      <c r="N40" s="1">
-        <v>5924962878</v>
-      </c>
-      <c r="O40" s="1">
-        <v>6944.3927960703277</v>
-      </c>
-      <c r="Q40" s="1">
-        <v>202446</v>
-      </c>
-      <c r="R40" s="1">
-        <v>3099698765</v>
-      </c>
-      <c r="S40" s="1">
-        <v>15311.237391699515</v>
-      </c>
-      <c r="U40" s="1">
-        <v>79</v>
-      </c>
-      <c r="V40" s="1">
-        <v>4741386</v>
-      </c>
-      <c r="W40" s="1">
-        <v>60017.544303797469</v>
-      </c>
-      <c r="Y40" s="1">
-        <v>93106</v>
-      </c>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A41" s="4"/>
+      <c r="B41" s="3">
+        <v>2</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" s="2">
+        <v>27.237413463619966</v>
+      </c>
+      <c r="E41" s="2">
+        <v>27.116296271797957</v>
+      </c>
+      <c r="F41" s="2">
+        <v>19.412265911004209</v>
+      </c>
+      <c r="G41" s="2">
+        <v>3.746460408899579</v>
+      </c>
+      <c r="I41" s="1">
+        <v>450348</v>
+      </c>
+      <c r="J41" s="1">
+        <v>4529581859</v>
+      </c>
+      <c r="K41" s="1">
+        <v>10058</v>
+      </c>
+      <c r="M41" s="1">
+        <v>421016</v>
+      </c>
+      <c r="N41" s="1">
+        <v>4509440070</v>
+      </c>
+      <c r="O41" s="1">
+        <v>10711</v>
+      </c>
+      <c r="Q41" s="1">
+        <v>138148</v>
+      </c>
+      <c r="R41" s="1">
+        <v>3228259821</v>
+      </c>
+      <c r="S41" s="1">
+        <v>23368</v>
+      </c>
+      <c r="U41" s="1">
+        <v>9130</v>
+      </c>
+      <c r="V41" s="1">
+        <v>623036366</v>
+      </c>
+      <c r="W41" s="1">
+        <v>68241</v>
+      </c>
+      <c r="Y41" s="1">
+        <v>245241</v>
+      </c>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A42" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="A42" s="4"/>
       <c r="B42" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D42" s="2">
-        <v>18.164547263980758</v>
+        <v>3.7607492002405292</v>
       </c>
       <c r="E42" s="2">
-        <v>16.840666897173783</v>
+        <v>3.6522549849669272</v>
       </c>
       <c r="F42" s="2">
-        <v>4.1046927179795549</v>
+        <v>2.2787489597113648</v>
       </c>
       <c r="G42" s="2">
-        <v>1.4877029464822609E-3</v>
+        <v>0.34191874323511728</v>
       </c>
       <c r="I42" s="1">
-        <v>1021611</v>
+        <v>136480</v>
       </c>
       <c r="J42" s="1">
-        <v>3020764210</v>
+        <v>625412592</v>
       </c>
       <c r="K42" s="1">
-        <v>2957</v>
+        <v>4582</v>
       </c>
       <c r="M42" s="1">
-        <v>642806</v>
+        <v>73846</v>
       </c>
       <c r="N42" s="1">
-        <v>2800602905</v>
+        <v>607370004</v>
       </c>
       <c r="O42" s="1">
-        <v>4357</v>
+        <v>8225</v>
       </c>
       <c r="Q42" s="1">
-        <v>51154</v>
+        <v>17781</v>
       </c>
       <c r="R42" s="1">
-        <v>682610399</v>
+        <v>378955952</v>
       </c>
       <c r="S42" s="1">
-        <v>13344</v>
+        <v>21312</v>
       </c>
       <c r="U42" s="1">
-        <v>4</v>
+        <v>859</v>
       </c>
       <c r="V42" s="1">
-        <v>247405</v>
+        <v>56861087</v>
       </c>
       <c r="W42" s="1">
-        <v>61851</v>
+        <v>66195</v>
       </c>
       <c r="Y42" s="1">
-        <v>78442</v>
+        <v>167261</v>
       </c>
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A43" s="4"/>
-      <c r="B43" s="3">
-        <v>1</v>
-      </c>
       <c r="C43" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D43" s="2">
-        <v>4.7885287552615754</v>
+        <v>53.951238683102829</v>
       </c>
       <c r="E43" s="2">
-        <v>4.1315842032471437</v>
+        <v>51.740802357185807</v>
       </c>
       <c r="F43" s="2">
-        <v>0.622956067348166</v>
+        <v>26.418663656043297</v>
       </c>
       <c r="G43" s="2">
-        <v>1.1112567648827421E-3</v>
+        <v>4.0909781118460611</v>
       </c>
       <c r="I43" s="1">
-        <v>421607</v>
+        <v>2030046</v>
       </c>
       <c r="J43" s="1">
-        <v>796332332</v>
+        <v>8972090993</v>
       </c>
       <c r="K43" s="1">
-        <v>1889</v>
+        <v>4419.649107951248</v>
       </c>
       <c r="M43" s="1">
-        <v>193917</v>
+        <v>1331585</v>
       </c>
       <c r="N43" s="1">
-        <v>687082453</v>
+        <v>8604495432</v>
       </c>
       <c r="O43" s="1">
-        <v>3543</v>
+        <v>6461.8446678206801</v>
       </c>
       <c r="Q43" s="1">
-        <v>8000</v>
+        <v>215083</v>
       </c>
       <c r="R43" s="1">
-        <v>103597594</v>
+        <v>4393423766</v>
       </c>
       <c r="S43" s="1">
-        <v>12950</v>
+        <v>20426.643509714853</v>
       </c>
       <c r="U43" s="1">
-        <v>3</v>
+        <v>9996</v>
       </c>
       <c r="V43" s="1">
-        <v>184802</v>
+        <v>680329660</v>
       </c>
       <c r="W43" s="1">
-        <v>61601</v>
+        <v>68060</v>
       </c>
       <c r="Y43" s="1">
-        <v>75924</v>
+        <v>245241</v>
       </c>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A44" s="4"/>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A45" s="4"/>
+      <c r="A45" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="B45" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D45" s="2">
-        <v>27.237413463619966</v>
+        <v>34.543488163368849</v>
       </c>
       <c r="E45" s="2">
-        <v>27.116296271797957</v>
+        <v>33.614076991374937</v>
       </c>
       <c r="F45" s="2">
-        <v>19.412265911004209</v>
+        <v>15.477482049720955</v>
       </c>
       <c r="G45" s="2">
-        <v>3.746460408899579</v>
+        <v>6.4285215626585485E-2</v>
       </c>
       <c r="I45" s="1">
-        <v>450348</v>
+        <v>1386759</v>
       </c>
       <c r="J45" s="1">
-        <v>4529581859</v>
+        <v>6808521517</v>
       </c>
       <c r="K45" s="1">
-        <v>10058</v>
+        <v>4910</v>
       </c>
       <c r="M45" s="1">
-        <v>421016</v>
+        <v>1072290</v>
       </c>
       <c r="N45" s="1">
-        <v>4509440070</v>
+        <v>6625334575</v>
       </c>
       <c r="O45" s="1">
-        <v>10711</v>
+        <v>6179</v>
       </c>
       <c r="Q45" s="1">
-        <v>138148</v>
+        <v>199330</v>
       </c>
       <c r="R45" s="1">
-        <v>3228259821</v>
+        <v>3050611712</v>
       </c>
       <c r="S45" s="1">
-        <v>23368</v>
+        <v>15304</v>
       </c>
       <c r="U45" s="1">
-        <v>9130</v>
+        <v>215</v>
       </c>
       <c r="V45" s="1">
-        <v>623036366</v>
+        <v>12670616</v>
       </c>
       <c r="W45" s="1">
-        <v>68241</v>
+        <v>58933</v>
       </c>
       <c r="Y45" s="1">
-        <v>245241</v>
+        <v>113218</v>
       </c>
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A46" s="4"/>
       <c r="B46" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D46" s="2">
-        <v>3.7607492002405292</v>
+        <v>7.8582927042110606</v>
       </c>
       <c r="E46" s="2">
-        <v>3.6522549849669272</v>
+        <v>7.5173298579401315</v>
       </c>
       <c r="F46" s="2">
-        <v>2.2787489597113648</v>
+        <v>3.1888441349568746</v>
       </c>
       <c r="G46" s="2">
-        <v>0.34191874323511728</v>
+        <v>1.2153389142567224E-2</v>
       </c>
       <c r="I46" s="1">
-        <v>136480</v>
+        <v>406297</v>
       </c>
       <c r="J46" s="1">
-        <v>625412592</v>
+        <v>1548869492</v>
       </c>
       <c r="K46" s="1">
-        <v>4582</v>
+        <v>3812</v>
       </c>
       <c r="M46" s="1">
-        <v>73846</v>
+        <v>255213</v>
       </c>
       <c r="N46" s="1">
-        <v>607370004</v>
+        <v>1481665715</v>
       </c>
       <c r="O46" s="1">
-        <v>8225</v>
+        <v>5806</v>
       </c>
       <c r="Q46" s="1">
-        <v>17781</v>
+        <v>41863</v>
       </c>
       <c r="R46" s="1">
-        <v>378955952</v>
+        <v>628521179</v>
       </c>
       <c r="S46" s="1">
-        <v>21312</v>
+        <v>15014</v>
       </c>
       <c r="U46" s="1">
-        <v>859</v>
+        <v>40</v>
       </c>
       <c r="V46" s="1">
-        <v>56861087</v>
+        <v>2395433</v>
       </c>
       <c r="W46" s="1">
-        <v>66195</v>
+        <v>59886</v>
       </c>
       <c r="Y46" s="1">
-        <v>167261</v>
+        <v>81233</v>
       </c>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.2">
@@ -2586,55 +2584,55 @@
         <v>3</v>
       </c>
       <c r="D47" s="2">
-        <v>53.951238683102829</v>
+        <v>42.401780867579909</v>
       </c>
       <c r="E47" s="2">
-        <v>51.740802357185807</v>
+        <v>41.13140684931507</v>
       </c>
       <c r="F47" s="2">
-        <v>26.418663656043297</v>
+        <v>18.666326184677828</v>
       </c>
       <c r="G47" s="2">
-        <v>4.0909781118460611</v>
+        <v>7.6438604769152721E-2</v>
       </c>
       <c r="I47" s="1">
-        <v>2030046</v>
+        <v>1793056</v>
       </c>
       <c r="J47" s="1">
-        <v>8972090993</v>
+        <v>8357391009</v>
       </c>
       <c r="K47" s="1">
-        <v>4419.649107951248</v>
+        <v>4660.9760146922354</v>
       </c>
       <c r="M47" s="1">
-        <v>1331585</v>
+        <v>1327503</v>
       </c>
       <c r="N47" s="1">
-        <v>8604495432</v>
+        <v>8107000290</v>
       </c>
       <c r="O47" s="1">
-        <v>6461.8446678206801</v>
+        <v>6106.9544023629323</v>
       </c>
       <c r="Q47" s="1">
-        <v>215083</v>
+        <v>241193</v>
       </c>
       <c r="R47" s="1">
-        <v>4393423766</v>
+        <v>3679132891</v>
       </c>
       <c r="S47" s="1">
-        <v>20426.643509714853</v>
+        <v>15253.895805433822</v>
       </c>
       <c r="U47" s="1">
-        <v>9996</v>
+        <v>255</v>
       </c>
       <c r="V47" s="1">
-        <v>680329660</v>
+        <v>15066049</v>
       </c>
       <c r="W47" s="1">
-        <v>68060</v>
+        <v>59082.545098039212</v>
       </c>
       <c r="Y47" s="1">
-        <v>245241</v>
+        <v>113218</v>
       </c>
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.2">
@@ -2642,7 +2640,7 @@
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B49" s="3">
         <v>1</v>
@@ -2651,55 +2649,55 @@
         <v>5</v>
       </c>
       <c r="D49" s="2">
-        <v>34.543488163368849</v>
+        <v>33.266199409660111</v>
       </c>
       <c r="E49" s="2">
-        <v>33.614076991374937</v>
+        <v>31.684513816338701</v>
       </c>
       <c r="F49" s="2">
-        <v>15.477482049720955</v>
+        <v>13.79538419797257</v>
       </c>
       <c r="G49" s="2">
-        <v>6.4285215626585485E-2</v>
+        <v>1.8192564102564101E-2</v>
       </c>
       <c r="I49" s="1">
-        <v>1386759</v>
+        <v>1417469</v>
       </c>
       <c r="J49" s="1">
-        <v>6808521517</v>
+        <v>5578741641</v>
       </c>
       <c r="K49" s="1">
-        <v>4910</v>
+        <v>3936</v>
       </c>
       <c r="M49" s="1">
-        <v>1072290</v>
+        <v>905571</v>
       </c>
       <c r="N49" s="1">
-        <v>6625334575</v>
+        <v>5313492967</v>
       </c>
       <c r="O49" s="1">
-        <v>6179</v>
+        <v>5868</v>
       </c>
       <c r="Q49" s="1">
-        <v>199330</v>
+        <v>154234</v>
       </c>
       <c r="R49" s="1">
-        <v>3050611712</v>
+        <v>2313485930</v>
       </c>
       <c r="S49" s="1">
-        <v>15304</v>
+        <v>15000</v>
       </c>
       <c r="U49" s="1">
-        <v>215</v>
+        <v>52</v>
       </c>
       <c r="V49" s="1">
-        <v>12670616</v>
+        <v>3050893</v>
       </c>
       <c r="W49" s="1">
-        <v>58933</v>
+        <v>58671</v>
       </c>
       <c r="Y49" s="1">
-        <v>113218</v>
+        <v>104401</v>
       </c>
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.2">
@@ -2711,55 +2709,55 @@
         <v>4</v>
       </c>
       <c r="D50" s="2">
-        <v>7.8582927042110606</v>
+        <v>7.2130269290399527</v>
       </c>
       <c r="E50" s="2">
-        <v>7.5173298579401315</v>
+        <v>6.4590989803220031</v>
       </c>
       <c r="F50" s="2">
-        <v>3.1888441349568746</v>
+        <v>2.0648572927847346</v>
       </c>
       <c r="G50" s="2">
-        <v>1.2153389142567224E-2</v>
+        <v>4.3196541443053073E-3</v>
       </c>
       <c r="I50" s="1">
-        <v>406297</v>
+        <v>539516</v>
       </c>
       <c r="J50" s="1">
-        <v>1548869492</v>
+        <v>1209624616</v>
       </c>
       <c r="K50" s="1">
-        <v>3812</v>
+        <v>2242</v>
       </c>
       <c r="M50" s="1">
-        <v>255213</v>
+        <v>235093</v>
       </c>
       <c r="N50" s="1">
-        <v>1481665715</v>
+        <v>1083190899</v>
       </c>
       <c r="O50" s="1">
-        <v>5806</v>
+        <v>4607</v>
       </c>
       <c r="Q50" s="1">
-        <v>41863</v>
+        <v>23986</v>
       </c>
       <c r="R50" s="1">
-        <v>628521179</v>
+        <v>346276568</v>
       </c>
       <c r="S50" s="1">
-        <v>15014</v>
+        <v>14437</v>
       </c>
       <c r="U50" s="1">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="V50" s="1">
-        <v>2395433</v>
+        <v>724406</v>
       </c>
       <c r="W50" s="1">
-        <v>59886</v>
+        <v>72441</v>
       </c>
       <c r="Y50" s="1">
-        <v>81233</v>
+        <v>140078</v>
       </c>
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.2">
@@ -2768,55 +2766,55 @@
         <v>3</v>
       </c>
       <c r="D51" s="2">
-        <v>42.401780867579909</v>
+        <v>40.479226338700059</v>
       </c>
       <c r="E51" s="2">
-        <v>41.13140684931507</v>
+        <v>38.143612796660705</v>
       </c>
       <c r="F51" s="2">
-        <v>18.666326184677828</v>
+        <v>15.860241490757305</v>
       </c>
       <c r="G51" s="2">
-        <v>7.6438604769152721E-2</v>
+        <v>2.2512218246869411E-2</v>
       </c>
       <c r="I51" s="1">
-        <v>1793056</v>
+        <v>1956985</v>
       </c>
       <c r="J51" s="1">
-        <v>8357391009</v>
+        <v>6788366257</v>
       </c>
       <c r="K51" s="1">
-        <v>4660.9760146922354</v>
+        <v>3468.7880883093126</v>
       </c>
       <c r="M51" s="1">
-        <v>1327503</v>
+        <v>1140664</v>
       </c>
       <c r="N51" s="1">
-        <v>8107000290</v>
+        <v>6396683866</v>
       </c>
       <c r="O51" s="1">
-        <v>6106.9544023629323</v>
+        <v>5607.8598658325327</v>
       </c>
       <c r="Q51" s="1">
-        <v>241193</v>
+        <v>178220</v>
       </c>
       <c r="R51" s="1">
-        <v>3679132891</v>
+        <v>2659762498</v>
       </c>
       <c r="S51" s="1">
-        <v>15253.895805433822</v>
+        <v>14924.040500504994</v>
       </c>
       <c r="U51" s="1">
-        <v>255</v>
+        <v>62</v>
       </c>
       <c r="V51" s="1">
-        <v>15066049</v>
+        <v>3775299</v>
       </c>
       <c r="W51" s="1">
-        <v>59082.545098039212</v>
+        <v>60891.919354838712</v>
       </c>
       <c r="Y51" s="1">
-        <v>113218</v>
+        <v>104401</v>
       </c>
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.2">
@@ -2824,7 +2822,7 @@
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B53" s="3">
         <v>1</v>
@@ -2833,55 +2831,55 @@
         <v>5</v>
       </c>
       <c r="D53" s="2">
-        <v>33.266199409660111</v>
+        <v>23.884192483503298</v>
       </c>
       <c r="E53" s="2">
-        <v>31.684513816338701</v>
+        <v>23.785580767846429</v>
       </c>
       <c r="F53" s="2">
-        <v>13.79538419797257</v>
+        <v>16.868454451109777</v>
       </c>
       <c r="G53" s="2">
-        <v>1.8192564102564101E-2</v>
+        <v>4.4702563347330537</v>
       </c>
       <c r="I53" s="1">
-        <v>1417469</v>
+        <v>390359</v>
       </c>
       <c r="J53" s="1">
-        <v>5578741641</v>
+        <v>3981494887</v>
       </c>
       <c r="K53" s="1">
-        <v>3936</v>
+        <v>10200</v>
       </c>
       <c r="M53" s="1">
-        <v>905571</v>
+        <v>366174</v>
       </c>
       <c r="N53" s="1">
-        <v>5313492967</v>
+        <v>3965056314</v>
       </c>
       <c r="O53" s="1">
-        <v>5868</v>
+        <v>10828</v>
       </c>
       <c r="Q53" s="1">
-        <v>154234</v>
+        <v>110941</v>
       </c>
       <c r="R53" s="1">
-        <v>2313485930</v>
+        <v>2811971357</v>
       </c>
       <c r="S53" s="1">
-        <v>15000</v>
+        <v>25347</v>
       </c>
       <c r="U53" s="1">
-        <v>52</v>
+        <v>10362</v>
       </c>
       <c r="V53" s="1">
-        <v>3050893</v>
+        <v>745191731</v>
       </c>
       <c r="W53" s="1">
-        <v>58671</v>
+        <v>71916</v>
       </c>
       <c r="Y53" s="1">
-        <v>104401</v>
+        <v>254031</v>
       </c>
     </row>
     <row r="54" spans="1:25" x14ac:dyDescent="0.2">
@@ -2893,55 +2891,55 @@
         <v>4</v>
       </c>
       <c r="D54" s="2">
-        <v>7.2130269290399527</v>
+        <v>3.5318462807438511</v>
       </c>
       <c r="E54" s="2">
-        <v>6.4590989803220031</v>
+        <v>3.4756399100179962</v>
       </c>
       <c r="F54" s="2">
-        <v>2.0648572927847346</v>
+        <v>2.2124593341331735</v>
       </c>
       <c r="G54" s="2">
-        <v>4.3196541443053073E-3</v>
+        <v>0.41893081583683262</v>
       </c>
       <c r="I54" s="1">
-        <v>539516</v>
+        <v>94303</v>
       </c>
       <c r="J54" s="1">
-        <v>1209624616</v>
+        <v>588758775</v>
       </c>
       <c r="K54" s="1">
-        <v>2242</v>
+        <v>6243</v>
       </c>
       <c r="M54" s="1">
-        <v>235093</v>
+        <v>66650</v>
       </c>
       <c r="N54" s="1">
-        <v>1083190899</v>
+        <v>579389173</v>
       </c>
       <c r="O54" s="1">
-        <v>4607</v>
+        <v>8693</v>
       </c>
       <c r="Q54" s="1">
-        <v>23986</v>
+        <v>16058</v>
       </c>
       <c r="R54" s="1">
-        <v>346276568</v>
+        <v>368816971</v>
       </c>
       <c r="S54" s="1">
-        <v>14437</v>
+        <v>22968</v>
       </c>
       <c r="U54" s="1">
-        <v>10</v>
+        <v>1041</v>
       </c>
       <c r="V54" s="1">
-        <v>724406</v>
+        <v>69835767</v>
       </c>
       <c r="W54" s="1">
-        <v>72441</v>
+        <v>67085</v>
       </c>
       <c r="Y54" s="1">
-        <v>140078</v>
+        <v>184841</v>
       </c>
     </row>
     <row r="55" spans="1:25" x14ac:dyDescent="0.2">
@@ -2950,55 +2948,55 @@
         <v>3</v>
       </c>
       <c r="D55" s="2">
-        <v>40.479226338700059</v>
+        <v>27.416038764247151</v>
       </c>
       <c r="E55" s="2">
-        <v>38.143612796660705</v>
+        <v>27.261220677864426</v>
       </c>
       <c r="F55" s="2">
-        <v>15.860241490757305</v>
+        <v>19.080913785242952</v>
       </c>
       <c r="G55" s="2">
-        <v>2.2512218246869411E-2</v>
+        <v>4.8891871505698861</v>
       </c>
       <c r="I55" s="1">
-        <v>1956985</v>
+        <v>484662</v>
       </c>
       <c r="J55" s="1">
-        <v>6788366257</v>
+        <v>4570253662</v>
       </c>
       <c r="K55" s="1">
-        <v>3468.7880883093126</v>
+        <v>9429.7751051248088</v>
       </c>
       <c r="M55" s="1">
-        <v>1140664</v>
+        <v>432824</v>
       </c>
       <c r="N55" s="1">
-        <v>6396683866</v>
+        <v>4544445487</v>
       </c>
       <c r="O55" s="1">
-        <v>5607.8598658325327</v>
+        <v>10499.522870728055</v>
       </c>
       <c r="Q55" s="1">
-        <v>178220</v>
+        <v>126999</v>
       </c>
       <c r="R55" s="1">
-        <v>2659762498</v>
+        <v>3180788328</v>
       </c>
       <c r="S55" s="1">
-        <v>14924.040500504994</v>
+        <v>25045.774596650368</v>
       </c>
       <c r="U55" s="1">
-        <v>62</v>
+        <v>11403</v>
       </c>
       <c r="V55" s="1">
-        <v>3775299</v>
+        <v>815027498</v>
       </c>
       <c r="W55" s="1">
-        <v>60891.919354838712</v>
+        <v>71474.831009383503</v>
       </c>
       <c r="Y55" s="1">
-        <v>104401</v>
+        <v>254031</v>
       </c>
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.2">
@@ -3006,7 +3004,7 @@
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B57" s="3">
         <v>1</v>
@@ -3015,55 +3013,55 @@
         <v>5</v>
       </c>
       <c r="D57" s="2">
-        <v>23.884192483503298</v>
+        <v>1.1140007393483708</v>
       </c>
       <c r="E57" s="2">
-        <v>23.785580767846429</v>
+        <v>0.92818445488721801</v>
       </c>
       <c r="F57" s="2">
-        <v>16.868454451109777</v>
+        <v>0.24723954260651629</v>
       </c>
       <c r="G57" s="2">
-        <v>4.4702563347330537</v>
+        <v>3.2165413533834588E-4</v>
       </c>
       <c r="I57" s="1">
-        <v>390359</v>
+        <v>102280</v>
       </c>
       <c r="J57" s="1">
-        <v>3981494887</v>
+        <v>177794518</v>
       </c>
       <c r="K57" s="1">
-        <v>10200</v>
+        <v>1738</v>
       </c>
       <c r="M57" s="1">
-        <v>366174</v>
+        <v>36926</v>
       </c>
       <c r="N57" s="1">
-        <v>3965056314</v>
+        <v>148138239</v>
       </c>
       <c r="O57" s="1">
-        <v>10828</v>
+        <v>4012</v>
       </c>
       <c r="Q57" s="1">
-        <v>110941</v>
+        <v>2739</v>
       </c>
       <c r="R57" s="1">
-        <v>2811971357</v>
+        <v>39459431</v>
       </c>
       <c r="S57" s="1">
-        <v>25347</v>
+        <v>14407</v>
       </c>
       <c r="U57" s="1">
-        <v>10362</v>
+        <v>1</v>
       </c>
       <c r="V57" s="1">
-        <v>745191731</v>
+        <v>51336</v>
       </c>
       <c r="W57" s="1">
-        <v>71916</v>
+        <v>51336</v>
       </c>
       <c r="Y57" s="1">
-        <v>254031</v>
+        <v>51336</v>
       </c>
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.2">
@@ -3075,665 +3073,665 @@
         <v>4</v>
       </c>
       <c r="D58" s="2">
-        <v>3.5318462807438511</v>
+        <v>0.5244852882205514</v>
       </c>
       <c r="E58" s="2">
-        <v>3.4756399100179962</v>
+        <v>0.2995705827067669</v>
       </c>
       <c r="F58" s="2">
-        <v>2.2124593341331735</v>
+        <v>4.6258452380952379E-2</v>
       </c>
       <c r="G58" s="2">
-        <v>0.41893081583683262</v>
+        <v>0</v>
       </c>
       <c r="I58" s="1">
-        <v>94303</v>
+        <v>137614</v>
       </c>
       <c r="J58" s="1">
-        <v>588758775</v>
+        <v>83707852</v>
       </c>
       <c r="K58" s="1">
-        <v>6243</v>
+        <v>608</v>
       </c>
       <c r="M58" s="1">
-        <v>66650</v>
+        <v>16642</v>
       </c>
       <c r="N58" s="1">
-        <v>579389173</v>
+        <v>47811465</v>
       </c>
       <c r="O58" s="1">
-        <v>8693</v>
+        <v>2873</v>
       </c>
       <c r="Q58" s="1">
-        <v>16058</v>
+        <v>509</v>
       </c>
       <c r="R58" s="1">
-        <v>368816971</v>
+        <v>7382849</v>
       </c>
       <c r="S58" s="1">
-        <v>22968</v>
+        <v>14505</v>
       </c>
       <c r="U58" s="1">
-        <v>1041</v>
+        <v>0</v>
       </c>
       <c r="V58" s="1">
-        <v>69835767</v>
-      </c>
-      <c r="W58" s="1">
-        <v>67085</v>
+        <v>0</v>
+      </c>
+      <c r="W58" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="Y58" s="1">
-        <v>184841</v>
+        <v>48774</v>
       </c>
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A59" s="4"/>
-      <c r="C59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D59" s="2">
-        <v>27.416038764247151</v>
-      </c>
-      <c r="E59" s="2">
-        <v>27.261220677864426</v>
-      </c>
-      <c r="F59" s="2">
-        <v>19.080913785242952</v>
-      </c>
-      <c r="G59" s="2">
-        <v>4.8891871505698861</v>
-      </c>
-      <c r="I59" s="1">
-        <v>484662</v>
-      </c>
-      <c r="J59" s="1">
-        <v>4570253662</v>
-      </c>
-      <c r="K59" s="1">
-        <v>9429.7751051248088</v>
-      </c>
-      <c r="M59" s="1">
-        <v>432824</v>
-      </c>
-      <c r="N59" s="1">
-        <v>4544445487</v>
-      </c>
-      <c r="O59" s="1">
-        <v>10499.522870728055</v>
-      </c>
-      <c r="Q59" s="1">
-        <v>126999</v>
-      </c>
-      <c r="R59" s="1">
-        <v>3180788328</v>
-      </c>
-      <c r="S59" s="1">
-        <v>25045.774596650368</v>
-      </c>
-      <c r="U59" s="1">
-        <v>11403</v>
-      </c>
-      <c r="V59" s="1">
-        <v>815027498</v>
-      </c>
-      <c r="W59" s="1">
-        <v>71474.831009383503</v>
-      </c>
-      <c r="Y59" s="1">
-        <v>254031</v>
-      </c>
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A60" s="4"/>
+      <c r="B60" s="3">
+        <v>2</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60" s="2">
+        <v>29.112992731829575</v>
+      </c>
+      <c r="E60" s="2">
+        <v>29.060016754385966</v>
+      </c>
+      <c r="F60" s="2">
+        <v>24.815474786967417</v>
+      </c>
+      <c r="G60" s="2">
+        <v>8.1681566979949878</v>
+      </c>
+      <c r="I60" s="1">
+        <v>286998</v>
+      </c>
+      <c r="J60" s="1">
+        <v>4646433640</v>
+      </c>
+      <c r="K60" s="1">
+        <v>16190</v>
+      </c>
+      <c r="M60" s="1">
+        <v>274963</v>
+      </c>
+      <c r="N60" s="1">
+        <v>4637978674</v>
+      </c>
+      <c r="O60" s="1">
+        <v>16868</v>
+      </c>
+      <c r="Q60" s="1">
+        <v>137457</v>
+      </c>
+      <c r="R60" s="1">
+        <v>3960549776</v>
+      </c>
+      <c r="S60" s="1">
+        <v>28813</v>
+      </c>
+      <c r="U60" s="1">
+        <v>17656</v>
+      </c>
+      <c r="V60" s="1">
+        <v>1303637809</v>
+      </c>
+      <c r="W60" s="1">
+        <v>73835</v>
+      </c>
+      <c r="Y60" s="1">
+        <v>309608</v>
+      </c>
     </row>
     <row r="61" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A61" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="A61" s="4"/>
       <c r="B61" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D61" s="2">
-        <v>1.1140007393483708</v>
+        <v>4.4101395300751882</v>
       </c>
       <c r="E61" s="2">
-        <v>0.92818445488721801</v>
+        <v>4.3365400187969927</v>
       </c>
       <c r="F61" s="2">
-        <v>0.24723954260651629</v>
+        <v>3.4973570175438597</v>
       </c>
       <c r="G61" s="2">
-        <v>3.2165413533834588E-4</v>
+        <v>0.97753205513784458</v>
       </c>
       <c r="I61" s="1">
-        <v>102280</v>
+        <v>92057</v>
       </c>
       <c r="J61" s="1">
-        <v>177794518</v>
+        <v>703858269</v>
       </c>
       <c r="K61" s="1">
-        <v>1738</v>
+        <v>7646</v>
       </c>
       <c r="M61" s="1">
-        <v>36926</v>
+        <v>51209</v>
       </c>
       <c r="N61" s="1">
-        <v>148138239</v>
+        <v>692111787</v>
       </c>
       <c r="O61" s="1">
-        <v>4012</v>
+        <v>13515</v>
       </c>
       <c r="Q61" s="1">
-        <v>2739</v>
+        <v>20911</v>
       </c>
       <c r="R61" s="1">
-        <v>39459431</v>
+        <v>558178180</v>
       </c>
       <c r="S61" s="1">
-        <v>14407</v>
+        <v>26693</v>
       </c>
       <c r="U61" s="1">
-        <v>1</v>
+        <v>2149</v>
       </c>
       <c r="V61" s="1">
-        <v>51336</v>
+        <v>156014116</v>
       </c>
       <c r="W61" s="1">
-        <v>51336</v>
+        <v>72598</v>
       </c>
       <c r="Y61" s="1">
-        <v>51336</v>
+        <v>234017</v>
       </c>
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A62" s="4"/>
-      <c r="B62" s="3">
-        <v>1</v>
-      </c>
       <c r="C62" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D62" s="2">
-        <v>0.5244852882205514</v>
+        <v>35.161618289473687</v>
       </c>
       <c r="E62" s="2">
-        <v>0.2995705827067669</v>
+        <v>34.624311810776945</v>
       </c>
       <c r="F62" s="2">
-        <v>4.6258452380952379E-2</v>
+        <v>28.606329799498745</v>
       </c>
       <c r="G62" s="2">
-        <v>0</v>
+        <v>9.1460104072681698</v>
       </c>
       <c r="I62" s="1">
-        <v>137614</v>
+        <v>618949</v>
       </c>
       <c r="J62" s="1">
-        <v>83707852</v>
+        <v>5611794279</v>
       </c>
       <c r="K62" s="1">
-        <v>608</v>
+        <v>9066.650530172923</v>
       </c>
       <c r="M62" s="1">
-        <v>16642</v>
+        <v>379740</v>
       </c>
       <c r="N62" s="1">
-        <v>47811465</v>
+        <v>5526040165</v>
       </c>
       <c r="O62" s="1">
-        <v>2873</v>
+        <v>14552.167706852057</v>
       </c>
       <c r="Q62" s="1">
-        <v>509</v>
+        <v>161616</v>
       </c>
       <c r="R62" s="1">
-        <v>7382849</v>
+        <v>4565570236</v>
       </c>
       <c r="S62" s="1">
-        <v>14505</v>
+        <v>28249.494084744085</v>
       </c>
       <c r="U62" s="1">
-        <v>0</v>
+        <v>19806</v>
       </c>
       <c r="V62" s="1">
-        <v>0</v>
-      </c>
-      <c r="W62" s="1" t="s">
-        <v>9</v>
+        <v>1459703261</v>
+      </c>
+      <c r="W62" s="1">
+        <v>73700.053569625365</v>
       </c>
       <c r="Y62" s="1">
-        <v>48774</v>
+        <v>309608</v>
       </c>
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A63" s="4"/>
     </row>
     <row r="64" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A64" s="4"/>
+      <c r="A64" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="B64" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D64" s="2">
-        <v>29.112992731829575</v>
+        <v>6.0764262046711739</v>
       </c>
       <c r="E64" s="2">
-        <v>29.060016754385966</v>
+        <v>6.0276838721573451</v>
       </c>
       <c r="F64" s="2">
-        <v>24.815474786967417</v>
+        <v>3.6828637799631223</v>
       </c>
       <c r="G64" s="2">
-        <v>8.1681566979949878</v>
+        <v>0.34542499999999998</v>
       </c>
       <c r="I64" s="1">
-        <v>286998</v>
+        <v>262081</v>
       </c>
       <c r="J64" s="1">
-        <v>4646433640</v>
+        <v>1977269087</v>
       </c>
       <c r="K64" s="1">
-        <v>16190</v>
+        <v>7544</v>
       </c>
       <c r="M64" s="1">
-        <v>274963</v>
+        <v>239104</v>
       </c>
       <c r="N64" s="1">
-        <v>4637978674</v>
+        <v>1961408332</v>
       </c>
       <c r="O64" s="1">
-        <v>16868</v>
+        <v>8203</v>
       </c>
       <c r="Q64" s="1">
-        <v>137457</v>
+        <v>58270</v>
       </c>
       <c r="R64" s="1">
-        <v>3960549776</v>
+        <v>1198403874</v>
       </c>
       <c r="S64" s="1">
-        <v>28813</v>
+        <v>20566</v>
       </c>
       <c r="U64" s="1">
-        <v>17656</v>
+        <v>1829</v>
       </c>
       <c r="V64" s="1">
-        <v>1303637809</v>
+        <v>112401295</v>
       </c>
       <c r="W64" s="1">
-        <v>73835</v>
+        <v>61455</v>
       </c>
       <c r="Y64" s="1">
-        <v>309608</v>
+        <v>130209</v>
       </c>
     </row>
     <row r="65" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A65" s="4"/>
       <c r="B65" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D65" s="2">
-        <v>4.4101395300751882</v>
+        <v>1.6240935341118623</v>
       </c>
       <c r="E65" s="2">
-        <v>4.3365400187969927</v>
+        <v>1.5809340964966196</v>
       </c>
       <c r="F65" s="2">
-        <v>3.4973570175438597</v>
+        <v>0.88297074062692071</v>
       </c>
       <c r="G65" s="2">
-        <v>0.97753205513784458</v>
+        <v>6.1697667486170865E-2</v>
       </c>
       <c r="I65" s="1">
-        <v>92057</v>
+        <v>110246</v>
       </c>
       <c r="J65" s="1">
-        <v>703858269</v>
+        <v>528480036</v>
       </c>
       <c r="K65" s="1">
-        <v>7646</v>
+        <v>4794</v>
       </c>
       <c r="M65" s="1">
-        <v>51209</v>
+        <v>73996</v>
       </c>
       <c r="N65" s="1">
-        <v>692111787</v>
+        <v>514435955</v>
       </c>
       <c r="O65" s="1">
-        <v>13515</v>
+        <v>6952</v>
       </c>
       <c r="Q65" s="1">
-        <v>20911</v>
+        <v>14614</v>
       </c>
       <c r="R65" s="1">
-        <v>558178180</v>
+        <v>287318679</v>
       </c>
       <c r="S65" s="1">
-        <v>26693</v>
+        <v>19661</v>
       </c>
       <c r="U65" s="1">
-        <v>2149</v>
+        <v>330</v>
       </c>
       <c r="V65" s="1">
-        <v>156014116</v>
+        <v>20076421</v>
       </c>
       <c r="W65" s="1">
-        <v>72598</v>
+        <v>60838</v>
       </c>
       <c r="Y65" s="1">
-        <v>234017</v>
+        <v>109290</v>
       </c>
     </row>
     <row r="66" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A66" s="4"/>
-      <c r="C66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D66" s="2">
-        <v>35.161618289473687</v>
-      </c>
-      <c r="E66" s="2">
-        <v>34.624311810776945</v>
-      </c>
-      <c r="F66" s="2">
-        <v>28.606329799498745</v>
-      </c>
-      <c r="G66" s="2">
-        <v>9.1460104072681698</v>
-      </c>
-      <c r="I66" s="1">
-        <v>618949</v>
-      </c>
-      <c r="J66" s="1">
-        <v>5611794279</v>
-      </c>
-      <c r="K66" s="1">
-        <v>9066.650530172923</v>
-      </c>
-      <c r="M66" s="1">
-        <v>379740</v>
-      </c>
-      <c r="N66" s="1">
-        <v>5526040165</v>
-      </c>
-      <c r="O66" s="1">
-        <v>14552.167706852057</v>
-      </c>
-      <c r="Q66" s="1">
-        <v>161616</v>
-      </c>
-      <c r="R66" s="1">
-        <v>4565570236</v>
-      </c>
-      <c r="S66" s="1">
-        <v>28249.494084744085</v>
-      </c>
-      <c r="U66" s="1">
-        <v>19806</v>
-      </c>
-      <c r="V66" s="1">
-        <v>1459703261</v>
-      </c>
-      <c r="W66" s="1">
-        <v>73700.053569625365</v>
-      </c>
-      <c r="Y66" s="1">
-        <v>309608</v>
-      </c>
     </row>
     <row r="67" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A67" s="4"/>
+      <c r="B67" s="3">
+        <v>2</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D67" s="2">
+        <v>16.11806553165335</v>
+      </c>
+      <c r="E67" s="2">
+        <v>15.775657544560541</v>
+      </c>
+      <c r="F67" s="2">
+        <v>8.2031936846957585</v>
+      </c>
+      <c r="G67" s="2">
+        <v>1.1254498893669329</v>
+      </c>
+      <c r="I67" s="1">
+        <v>947858</v>
+      </c>
+      <c r="J67" s="1">
+        <v>5244818524</v>
+      </c>
+      <c r="K67" s="1">
+        <v>5533</v>
+      </c>
+      <c r="M67" s="1">
+        <v>777912</v>
+      </c>
+      <c r="N67" s="1">
+        <v>5133398965</v>
+      </c>
+      <c r="O67" s="1">
+        <v>6599</v>
+      </c>
+      <c r="Q67" s="1">
+        <v>131302</v>
+      </c>
+      <c r="R67" s="1">
+        <v>2669319225</v>
+      </c>
+      <c r="S67" s="1">
+        <v>20330</v>
+      </c>
+      <c r="U67" s="1">
+        <v>5291</v>
+      </c>
+      <c r="V67" s="1">
+        <v>366221394</v>
+      </c>
+      <c r="W67" s="1">
+        <v>69216</v>
+      </c>
+      <c r="Y67" s="1">
+        <v>282795</v>
+      </c>
     </row>
     <row r="68" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A68" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="A68" s="4"/>
       <c r="B68" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D68" s="2">
-        <v>6.0764262046711739</v>
+        <v>3.9725003472649045</v>
       </c>
       <c r="E68" s="2">
-        <v>6.0276838721573451</v>
+        <v>3.8257071757836507</v>
       </c>
       <c r="F68" s="2">
-        <v>3.6828637799631223</v>
+        <v>1.7626959004302396</v>
       </c>
       <c r="G68" s="2">
-        <v>0.34542499999999998</v>
+        <v>0.18755195759065765</v>
       </c>
       <c r="I68" s="1">
-        <v>262081</v>
+        <v>306802</v>
       </c>
       <c r="J68" s="1">
-        <v>1977269087</v>
+        <v>1292651613</v>
       </c>
       <c r="K68" s="1">
-        <v>7544</v>
+        <v>4213</v>
       </c>
       <c r="M68" s="1">
-        <v>239104</v>
+        <v>220377</v>
       </c>
       <c r="N68" s="1">
-        <v>1961408332</v>
+        <v>1244885115</v>
       </c>
       <c r="O68" s="1">
-        <v>8203</v>
+        <v>5649</v>
       </c>
       <c r="Q68" s="1">
-        <v>58270</v>
+        <v>29678</v>
       </c>
       <c r="R68" s="1">
-        <v>1198403874</v>
+        <v>573581246</v>
       </c>
       <c r="S68" s="1">
-        <v>20566</v>
+        <v>19327</v>
       </c>
       <c r="U68" s="1">
-        <v>1829</v>
+        <v>888</v>
       </c>
       <c r="V68" s="1">
-        <v>112401295</v>
+        <v>61029407</v>
       </c>
       <c r="W68" s="1">
-        <v>61455</v>
+        <v>68727</v>
       </c>
       <c r="Y68" s="1">
-        <v>130209</v>
+        <v>217601</v>
       </c>
     </row>
     <row r="69" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A69" s="4"/>
-      <c r="B69" s="3">
-        <v>1</v>
-      </c>
       <c r="C69" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D69" s="2">
-        <v>1.6240935341118623</v>
+        <v>27.791085617701292</v>
       </c>
       <c r="E69" s="2">
-        <v>1.5809340964966196</v>
+        <v>27.209982688998156</v>
       </c>
       <c r="F69" s="2">
-        <v>0.88297074062692071</v>
+        <v>14.531724105716043</v>
       </c>
       <c r="G69" s="2">
-        <v>6.1697667486170865E-2</v>
+        <v>1.7201245144437616</v>
       </c>
       <c r="I69" s="1">
-        <v>110246</v>
+        <v>1626987</v>
       </c>
       <c r="J69" s="1">
-        <v>528480036</v>
+        <v>9043219260</v>
       </c>
       <c r="K69" s="1">
-        <v>4794</v>
+        <v>5558.2615349723137</v>
       </c>
       <c r="M69" s="1">
-        <v>73996</v>
+        <v>1311389</v>
       </c>
       <c r="N69" s="1">
-        <v>514435955</v>
+        <v>8854128367</v>
       </c>
       <c r="O69" s="1">
-        <v>6952</v>
+        <v>6751.7177336396753</v>
       </c>
       <c r="Q69" s="1">
-        <v>14614</v>
+        <v>233864</v>
       </c>
       <c r="R69" s="1">
-        <v>287318679</v>
+        <v>4728623024</v>
       </c>
       <c r="S69" s="1">
-        <v>19661</v>
+        <v>20219.542229671944</v>
       </c>
       <c r="U69" s="1">
-        <v>330</v>
+        <v>8338</v>
       </c>
       <c r="V69" s="1">
-        <v>20076421</v>
+        <v>559728517</v>
       </c>
       <c r="W69" s="1">
-        <v>60838</v>
+        <v>67129.829335572082</v>
       </c>
       <c r="Y69" s="1">
-        <v>109290</v>
+        <v>282795</v>
       </c>
     </row>
     <row r="70" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A70" s="4"/>
     </row>
     <row r="71" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A71" s="4"/>
+      <c r="A71" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="B71" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D71" s="2">
-        <v>16.11806553165335</v>
+        <v>28.491376416747809</v>
       </c>
       <c r="E71" s="2">
-        <v>15.775657544560541</v>
+        <v>26.153896577409931</v>
       </c>
       <c r="F71" s="2">
-        <v>8.2031936846957585</v>
+        <v>12.931182590068159</v>
       </c>
       <c r="G71" s="2">
-        <v>1.1254498893669329</v>
+        <v>6.9730443037974682E-2</v>
       </c>
       <c r="I71" s="1">
-        <v>947858</v>
+        <v>1868768</v>
       </c>
       <c r="J71" s="1">
-        <v>5244818524</v>
+        <v>5852128716</v>
       </c>
       <c r="K71" s="1">
-        <v>5533</v>
+        <v>3132</v>
       </c>
       <c r="M71" s="1">
-        <v>777912</v>
+        <v>923706</v>
       </c>
       <c r="N71" s="1">
-        <v>5133398965</v>
+        <v>5372010357</v>
       </c>
       <c r="O71" s="1">
-        <v>6599</v>
+        <v>5816</v>
       </c>
       <c r="Q71" s="1">
-        <v>131302</v>
+        <v>158505</v>
       </c>
       <c r="R71" s="1">
-        <v>2669319225</v>
+        <v>2656064904</v>
       </c>
       <c r="S71" s="1">
-        <v>20330</v>
+        <v>16757</v>
       </c>
       <c r="U71" s="1">
-        <v>5291</v>
+        <v>248</v>
       </c>
       <c r="V71" s="1">
-        <v>366221394</v>
+        <v>14322633</v>
       </c>
       <c r="W71" s="1">
-        <v>69216</v>
+        <v>57753</v>
       </c>
       <c r="Y71" s="1">
-        <v>282795</v>
+        <v>100073</v>
       </c>
     </row>
     <row r="72" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A72" s="4"/>
       <c r="B72" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D72" s="2">
-        <v>3.9725003472649045</v>
+        <v>4.5603473417721521</v>
       </c>
       <c r="E72" s="2">
-        <v>3.8257071757836507</v>
+        <v>3.9012287000973709</v>
       </c>
       <c r="F72" s="2">
-        <v>1.7626959004302396</v>
+        <v>1.5509960029211296</v>
       </c>
       <c r="G72" s="2">
-        <v>0.18755195759065765</v>
+        <v>1.0619556962025316E-2</v>
       </c>
       <c r="I72" s="1">
-        <v>306802</v>
+        <v>493988</v>
       </c>
       <c r="J72" s="1">
-        <v>1292651613</v>
+        <v>936695344</v>
       </c>
       <c r="K72" s="1">
-        <v>4213</v>
+        <v>1896</v>
       </c>
       <c r="M72" s="1">
-        <v>220377</v>
+        <v>166830</v>
       </c>
       <c r="N72" s="1">
-        <v>1244885115</v>
+        <v>801312375</v>
       </c>
       <c r="O72" s="1">
-        <v>5649</v>
+        <v>4803</v>
       </c>
       <c r="Q72" s="1">
-        <v>29678</v>
+        <v>19785</v>
       </c>
       <c r="R72" s="1">
-        <v>573581246</v>
+        <v>318574579</v>
       </c>
       <c r="S72" s="1">
-        <v>19327</v>
+        <v>16102</v>
       </c>
       <c r="U72" s="1">
-        <v>888</v>
+        <v>36</v>
       </c>
       <c r="V72" s="1">
-        <v>61029407</v>
+        <v>2181257</v>
       </c>
       <c r="W72" s="1">
-        <v>68727</v>
+        <v>60590</v>
       </c>
       <c r="Y72" s="1">
-        <v>217601</v>
+        <v>102831</v>
       </c>
     </row>
     <row r="73" spans="1:25" x14ac:dyDescent="0.2">
@@ -3742,55 +3740,55 @@
         <v>3</v>
       </c>
       <c r="D73" s="2">
-        <v>27.791085617701292</v>
+        <v>33.051723758519962</v>
       </c>
       <c r="E73" s="2">
-        <v>27.209982688998156</v>
+        <v>30.055125277507305</v>
       </c>
       <c r="F73" s="2">
-        <v>14.531724105716043</v>
+        <v>14.482178592989289</v>
       </c>
       <c r="G73" s="2">
-        <v>1.7201245144437616</v>
+        <v>8.0350000000000005E-2</v>
       </c>
       <c r="I73" s="1">
-        <v>1626987</v>
+        <v>2362756</v>
       </c>
       <c r="J73" s="1">
-        <v>9043219260</v>
+        <v>6788824060</v>
       </c>
       <c r="K73" s="1">
-        <v>5558.2615349723137</v>
+        <v>2873.2649753084957</v>
       </c>
       <c r="M73" s="1">
-        <v>1311389</v>
+        <v>1090536</v>
       </c>
       <c r="N73" s="1">
-        <v>8854128367</v>
+        <v>6173322732</v>
       </c>
       <c r="O73" s="1">
-        <v>6751.7177336396753</v>
+        <v>5660.8151697880676</v>
       </c>
       <c r="Q73" s="1">
-        <v>233864</v>
+        <v>178290</v>
       </c>
       <c r="R73" s="1">
-        <v>4728623024</v>
+        <v>2974639483</v>
       </c>
       <c r="S73" s="1">
-        <v>20219.542229671944</v>
+        <v>16684.275523024287</v>
       </c>
       <c r="U73" s="1">
-        <v>8338</v>
+        <v>284</v>
       </c>
       <c r="V73" s="1">
-        <v>559728517</v>
+        <v>16503890</v>
       </c>
       <c r="W73" s="1">
-        <v>67129.829335572082</v>
+        <v>58112.288732394365</v>
       </c>
       <c r="Y73" s="1">
-        <v>282795</v>
+        <v>100073</v>
       </c>
     </row>
     <row r="74" spans="1:25" x14ac:dyDescent="0.2">
@@ -3798,7 +3796,7 @@
     </row>
     <row r="75" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B75" s="3">
         <v>1</v>
@@ -3807,55 +3805,55 @@
         <v>5</v>
       </c>
       <c r="D75" s="2">
-        <v>28.491376416747809</v>
+        <v>21.732284393673112</v>
       </c>
       <c r="E75" s="2">
-        <v>26.153896577409931</v>
+        <v>21.541935723491505</v>
       </c>
       <c r="F75" s="2">
-        <v>12.931182590068159</v>
+        <v>12.589237404803749</v>
       </c>
       <c r="G75" s="2">
-        <v>6.9730443037974682E-2</v>
+        <v>1.7711855125951963</v>
       </c>
       <c r="I75" s="1">
-        <v>1868768</v>
+        <v>509806</v>
       </c>
       <c r="J75" s="1">
-        <v>5852128716</v>
+        <v>3709700946</v>
       </c>
       <c r="K75" s="1">
-        <v>3132</v>
+        <v>7277</v>
       </c>
       <c r="M75" s="1">
-        <v>923706</v>
+        <v>462732</v>
       </c>
       <c r="N75" s="1">
-        <v>5372010357</v>
+        <v>3677208428</v>
       </c>
       <c r="O75" s="1">
-        <v>5816</v>
+        <v>7947</v>
       </c>
       <c r="Q75" s="1">
-        <v>158505</v>
+        <v>103820</v>
       </c>
       <c r="R75" s="1">
-        <v>2656064904</v>
+        <v>2148982825</v>
       </c>
       <c r="S75" s="1">
-        <v>16757</v>
+        <v>20699</v>
       </c>
       <c r="U75" s="1">
-        <v>248</v>
+        <v>4459</v>
       </c>
       <c r="V75" s="1">
-        <v>14322633</v>
+        <v>302341367</v>
       </c>
       <c r="W75" s="1">
-        <v>57753</v>
+        <v>67805</v>
       </c>
       <c r="Y75" s="1">
-        <v>100073</v>
+        <v>195439</v>
       </c>
     </row>
     <row r="76" spans="1:25" x14ac:dyDescent="0.2">
@@ -3867,461 +3865,295 @@
         <v>4</v>
       </c>
       <c r="D76" s="2">
-        <v>4.5603473417721521</v>
+        <v>3.3325736438195666</v>
       </c>
       <c r="E76" s="2">
-        <v>3.9012287000973709</v>
+        <v>3.2654207967193907</v>
       </c>
       <c r="F76" s="2">
-        <v>1.5509960029211296</v>
+        <v>1.5004760164030462</v>
       </c>
       <c r="G76" s="2">
-        <v>1.0619556962025316E-2</v>
+        <v>0.13806396016403047</v>
       </c>
       <c r="I76" s="1">
-        <v>493988</v>
+        <v>111370</v>
       </c>
       <c r="J76" s="1">
-        <v>936695344</v>
+        <v>568870321</v>
       </c>
       <c r="K76" s="1">
-        <v>1896</v>
+        <v>5108</v>
       </c>
       <c r="M76" s="1">
-        <v>166830</v>
+        <v>92335</v>
       </c>
       <c r="N76" s="1">
-        <v>801312375</v>
+        <v>557407330</v>
       </c>
       <c r="O76" s="1">
-        <v>4803</v>
+        <v>6037</v>
       </c>
       <c r="Q76" s="1">
-        <v>19785</v>
+        <v>13536</v>
       </c>
       <c r="R76" s="1">
-        <v>318574579</v>
+        <v>256131256</v>
       </c>
       <c r="S76" s="1">
-        <v>16102</v>
+        <v>18922</v>
       </c>
       <c r="U76" s="1">
-        <v>36</v>
+        <v>365</v>
       </c>
       <c r="V76" s="1">
-        <v>2181257</v>
+        <v>23567518</v>
       </c>
       <c r="W76" s="1">
-        <v>60590</v>
+        <v>64569</v>
       </c>
       <c r="Y76" s="1">
-        <v>102831</v>
+        <v>176954</v>
       </c>
     </row>
     <row r="77" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A77" s="4"/>
       <c r="C77" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D77" s="2">
-        <v>33.051723758519962</v>
+        <v>25.064858037492677</v>
       </c>
       <c r="E77" s="2">
-        <v>30.055125277507305</v>
+        <v>24.807356520210895</v>
       </c>
       <c r="F77" s="2">
-        <v>14.482178592989289</v>
+        <v>14.089713421206795</v>
       </c>
       <c r="G77" s="2">
-        <v>8.0350000000000005E-2</v>
+        <v>1.9092494727592266</v>
       </c>
       <c r="I77" s="1">
-        <v>2362756</v>
+        <v>621176</v>
       </c>
       <c r="J77" s="1">
-        <v>6788824060</v>
+        <v>4278571267</v>
       </c>
       <c r="K77" s="1">
-        <v>2873.2649753084957</v>
+        <v>6887.8566895694621</v>
       </c>
       <c r="M77" s="1">
-        <v>1090536</v>
+        <v>555067</v>
       </c>
       <c r="N77" s="1">
-        <v>6173322732</v>
+        <v>4234615758</v>
       </c>
       <c r="O77" s="1">
-        <v>5660.8151697880676</v>
+        <v>7629.0173222331714</v>
       </c>
       <c r="Q77" s="1">
-        <v>178290</v>
+        <v>117356</v>
       </c>
       <c r="R77" s="1">
-        <v>2974639483</v>
+        <v>2405114081</v>
       </c>
       <c r="S77" s="1">
-        <v>16684.275523024287</v>
+        <v>20494.172270697705</v>
       </c>
       <c r="U77" s="1">
-        <v>284</v>
+        <v>4824</v>
       </c>
       <c r="V77" s="1">
-        <v>16503890</v>
+        <v>325908885</v>
       </c>
       <c r="W77" s="1">
-        <v>58112.288732394365</v>
+        <v>67559.884950248757</v>
       </c>
       <c r="Y77" s="1">
-        <v>100073</v>
-      </c>
-    </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A78" s="4"/>
+        <v>195439</v>
+      </c>
     </row>
     <row r="79" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A79" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B79" s="3">
+      <c r="A79" t="s">
+        <v>2</v>
+      </c>
+      <c r="I79" s="1">
+        <f>I75+I30+I16+I49+I9+I45+I71+I67+I60+I53+I41+I34+I23+I5+I27+I13+I64+I57+I38+I20</f>
+        <v>16995745</v>
+      </c>
+      <c r="J79" s="1">
+        <f>J75+J30+J16+J49+J9+J45+J71+J67+J60+J53+J41+J34+J23+J5+J27+J13+J64+J57+J38+J20</f>
+        <v>79953874536</v>
+      </c>
+      <c r="K79" s="1">
+        <f>J79/I79</f>
+        <v>4704.346560624439</v>
+      </c>
+      <c r="M79" s="1">
+        <f>M75+M30+M16+M49+M9+M45+M71+M67+M60+M53+M41+M34+M23+M5+M27+M13+M64+M57+M38+M20</f>
+        <v>11391941</v>
+      </c>
+      <c r="N79" s="1">
+        <f>N75+N30+N16+N49+N9+N45+N71+N67+N60+N53+N41+N34+N23+N5+N27+N13+N64+N57+N38+N20</f>
+        <v>76939770976</v>
+      </c>
+      <c r="O79" s="1">
+        <f>N79/M79</f>
+        <v>6753.8772344414356</v>
+      </c>
+      <c r="Q79" s="1">
+        <f>Q75+Q30+Q16+Q49+Q9+Q45+Q71+Q67+Q60+Q53+Q41+Q34+Q23+Q5+Q27+Q13+Q64+Q57+Q38+Q20</f>
+        <v>2218301</v>
+      </c>
+      <c r="R79" s="1">
+        <f>R75+R30+R16+R49+R9+R45+R71+R67+R60+R53+R41+R34+R23+R5+R27+R13+R64+R57+R38+R20</f>
+        <v>40612480388</v>
+      </c>
+      <c r="S79" s="1">
+        <f>R79/Q79</f>
+        <v>18307.921417336962</v>
+      </c>
+      <c r="U79" s="1">
+        <f>U75+U30+U16+U49+U9+U45+U71+U67+U60+U53+U41+U34+U23+U5+U27+U13+U64+U57+U38+U20</f>
+        <v>57257</v>
+      </c>
+      <c r="V79" s="1">
+        <f>V75+V30+V16+V49+V9+V45+V71+V67+V60+V53+V41+V34+V23+V5+V27+V13+V64+V57+V38+V20</f>
+        <v>4009871391</v>
+      </c>
+      <c r="W79" s="1">
+        <f>V79/U79</f>
+        <v>70032.858707232299</v>
+      </c>
+    </row>
+    <row r="80" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
         <v>1</v>
       </c>
-      <c r="C79" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D79" s="2">
-        <v>21.732284393673112</v>
-      </c>
-      <c r="E79" s="2">
-        <v>21.541935723491505</v>
-      </c>
-      <c r="F79" s="2">
-        <v>12.589237404803749</v>
-      </c>
-      <c r="G79" s="2">
-        <v>1.7711855125951963</v>
-      </c>
-      <c r="I79" s="1">
-        <v>509806</v>
-      </c>
-      <c r="J79" s="1">
-        <v>3709700946</v>
-      </c>
-      <c r="K79" s="1">
-        <v>7277</v>
-      </c>
-      <c r="M79" s="1">
-        <v>462732</v>
-      </c>
-      <c r="N79" s="1">
-        <v>3677208428</v>
-      </c>
-      <c r="O79" s="1">
-        <v>7947</v>
-      </c>
-      <c r="Q79" s="1">
-        <v>103820</v>
-      </c>
-      <c r="R79" s="1">
-        <v>2148982825</v>
-      </c>
-      <c r="S79" s="1">
-        <v>20699</v>
-      </c>
-      <c r="U79" s="1">
-        <v>4459</v>
-      </c>
-      <c r="V79" s="1">
-        <v>302341367</v>
-      </c>
-      <c r="W79" s="1">
-        <v>67805</v>
-      </c>
-      <c r="Y79" s="1">
-        <v>195439</v>
-      </c>
-    </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A80" s="4"/>
-      <c r="B80" s="3">
-        <v>1</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D80" s="2">
-        <v>3.3325736438195666</v>
-      </c>
-      <c r="E80" s="2">
-        <v>3.2654207967193907</v>
-      </c>
-      <c r="F80" s="2">
-        <v>1.5004760164030462</v>
-      </c>
-      <c r="G80" s="2">
-        <v>0.13806396016403047</v>
-      </c>
       <c r="I80" s="1">
-        <v>111370</v>
+        <f>I76+I31+I17+I50+I10+I46+I72+I68+I61+I54+I42+I35+I24+I6+I28+I14+I65+I58+I39+I21</f>
+        <v>5515319</v>
       </c>
       <c r="J80" s="1">
-        <v>568870321</v>
+        <f>J76+J31+J17+J50+J10+J46+J72+J68+J61+J54+J42+J35+J24+J6+J28+J14+J65+J58+J39+J21</f>
+        <v>14557582885</v>
       </c>
       <c r="K80" s="1">
-        <v>5108</v>
+        <f>J80/I80</f>
+        <v>2639.481575771048</v>
       </c>
       <c r="M80" s="1">
-        <v>92335</v>
+        <f>M76+M31+M17+M50+M10+M46+M72+M68+M61+M54+M42+M35+M24+M6+M28+M14+M65+M58+M39+M21</f>
+        <v>2495853</v>
       </c>
       <c r="N80" s="1">
-        <v>557407330</v>
+        <f>N76+N31+N17+N50+N10+N46+N72+N68+N61+N54+N42+N35+N24+N6+N28+N14+N65+N58+N39+N21</f>
+        <v>13327060271</v>
       </c>
       <c r="O80" s="1">
-        <v>6037</v>
+        <f>N80/M80</f>
+        <v>5339.681572191952</v>
       </c>
       <c r="Q80" s="1">
-        <v>13536</v>
+        <f>Q76+Q31+Q17+Q50+Q10+Q46+Q72+Q68+Q61+Q54+Q42+Q35+Q24+Q6+Q28+Q14+Q65+Q58+Q39+Q21</f>
+        <v>322667</v>
       </c>
       <c r="R80" s="1">
-        <v>256131256</v>
+        <f>R76+R31+R17+R50+R10+R46+R72+R68+R61+R54+R42+R35+R24+R6+R28+R14+R65+R58+R39+R21</f>
+        <v>5602740374</v>
       </c>
       <c r="S80" s="1">
-        <v>18922</v>
+        <f>R80/Q80</f>
+        <v>17363.846857596222</v>
       </c>
       <c r="U80" s="1">
-        <v>365</v>
+        <f>U76+U31+U17+U50+U10+U46+U72+U68+U61+U54+U42+U35+U24+U6+U28+U14+U65+U58+U39+U21</f>
+        <v>6302</v>
       </c>
       <c r="V80" s="1">
-        <v>23567518</v>
+        <f>V76+V31+V17+V50+V10+V46+V72+V68+V61+V54+V42+V35+V24+V6+V28+V14+V65+V58+V39+V21</f>
+        <v>430356361</v>
       </c>
       <c r="W80" s="1">
-        <v>64569</v>
-      </c>
-      <c r="Y80" s="1">
-        <v>176954</v>
-      </c>
-    </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="C81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D81" s="2">
-        <v>25.064858037492677</v>
-      </c>
-      <c r="E81" s="2">
-        <v>24.807356520210895</v>
-      </c>
-      <c r="F81" s="2">
-        <v>14.089713421206795</v>
-      </c>
-      <c r="G81" s="2">
-        <v>1.9092494727592266</v>
+        <f>V80/U80</f>
+        <v>68288.854490637896</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>0</v>
       </c>
       <c r="I81" s="1">
-        <v>621176</v>
+        <f>I77+I32+I18+I51+I11+I47+I73+I69+I62+I55+I43+I36+I25+I7+I29+I15+I66+I59+I40+I22</f>
+        <v>22511064</v>
       </c>
       <c r="J81" s="1">
-        <v>4278571267</v>
+        <f>J77+J32+J18+J51+J11+J47+J73+J69+J62+J55+J43+J36+J25+J7+J29+J15+J66+J59+J40+J22</f>
+        <v>94511457421</v>
       </c>
       <c r="K81" s="1">
-        <v>6887.8566895694621</v>
+        <f>J81/I81</f>
+        <v>4198.4447035022422</v>
       </c>
       <c r="M81" s="1">
-        <v>555067</v>
+        <f>M77+M32+M18+M51+M11+M47+M73+M69+M62+M55+M43+M36+M25+M7+M29+M15+M66+M59+M40+M22</f>
+        <v>13887794</v>
       </c>
       <c r="N81" s="1">
-        <v>4234615758</v>
+        <f>N77+N32+N18+N51+N11+N47+N73+N69+N62+N55+N43+N36+N25+N7+N29+N15+N66+N59+N40+N22</f>
+        <v>90266831247</v>
       </c>
       <c r="O81" s="1">
-        <v>7629.0173222331714</v>
+        <f>N81/M81</f>
+        <v>6499.7242360449764</v>
       </c>
       <c r="Q81" s="1">
-        <v>117356</v>
+        <f>Q77+Q32+Q18+Q51+Q11+Q47+Q73+Q69+Q62+Q55+Q43+Q36+Q25+Q7+Q29+Q15+Q66+Q59+Q40+Q22</f>
+        <v>2540968</v>
       </c>
       <c r="R81" s="1">
-        <v>2405114081</v>
+        <f>R77+R32+R18+R51+R11+R47+R73+R69+R62+R55+R43+R36+R25+R7+R29+R15+R66+R59+R40+R22</f>
+        <v>46215220762</v>
       </c>
       <c r="S81" s="1">
-        <v>20494.172270697705</v>
+        <f>R81/Q81</f>
+        <v>18188.037299958127</v>
       </c>
       <c r="U81" s="1">
-        <v>4824</v>
+        <f>U77+U32+U18+U51+U11+U47+U73+U69+U62+U55+U43+U36+U25+U7+U29+U15+U66+U59+U40+U22</f>
+        <v>63559</v>
       </c>
       <c r="V81" s="1">
-        <v>325908885</v>
+        <f>V77+V32+V18+V51+V11+V47+V73+V69+V62+V55+V43+V36+V25+V7+V29+V15+V66+V59+V40+V22</f>
+        <v>4440227752</v>
       </c>
       <c r="W81" s="1">
-        <v>67559.884950248757</v>
-      </c>
-      <c r="Y81" s="1">
-        <v>195439</v>
-      </c>
-    </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>2</v>
-      </c>
-      <c r="I83" s="1">
-        <f>I79+I30+I16+I53+I9+I49+I75+I34+I71+I64+I57+I45+I38+I23+I5+I27+I13+I68+I61+I42+I20</f>
-        <v>17405501</v>
-      </c>
-      <c r="J83" s="1">
-        <f>J79+J30+J16+J53+J9+J49+J75+J34+J71+J64+J57+J45+J38+J23+J5+J27+J13+J68+J61+J42+J20</f>
-        <v>83901313082</v>
-      </c>
-      <c r="K83" s="1">
-        <f>J83/I83</f>
-        <v>4820.390581230612</v>
-      </c>
-      <c r="M83" s="1">
-        <f>M79+M30+M16+M53+M9+M49+M75+M34+M71+M64+M57+M45+M38+M23+M5+M27+M13+M68+M61+M42+M20</f>
-        <v>11771772</v>
-      </c>
-      <c r="N83" s="1">
-        <f>N79+N30+N16+N53+N9+N49+N75+N34+N71+N64+N57+N45+N38+N23+N5+N27+N13+N68+N61+N42+N20</f>
-        <v>80866631933</v>
-      </c>
-      <c r="O83" s="1">
-        <f>N83/M83</f>
-        <v>6869.5377325520749</v>
-      </c>
-      <c r="Q83" s="1">
-        <f>Q79+Q30+Q16+Q53+Q9+Q49+Q75+Q34+Q71+Q64+Q57+Q45+Q38+Q23+Q5+Q27+Q13+Q68+Q61+Q42+Q20</f>
-        <v>2338969</v>
-      </c>
-      <c r="R83" s="1">
-        <f>R79+R30+R16+R53+R9+R49+R75+R34+R71+R64+R57+R45+R38+R23+R5+R27+R13+R68+R61+R42+R20</f>
-        <v>43372936390</v>
-      </c>
-      <c r="S83" s="1">
-        <f>R83/Q83</f>
-        <v>18543.613185980659</v>
-      </c>
-      <c r="U83" s="1">
-        <f>U79+U30+U16+U53+U9+U49+U75+U34+U71+U64+U57+U45+U38+U23+U5+U27+U13+U68+U61+U42+U20</f>
-        <v>64769</v>
-      </c>
-      <c r="V83" s="1">
-        <f>V79+V30+V16+V53+V9+V49+V75+V34+V71+V64+V57+V45+V38+V23+V5+V27+V13+V68+V61+V42+V20</f>
-        <v>4528839956</v>
-      </c>
-      <c r="W83" s="1">
-        <f>V83/U83</f>
-        <v>69922.95629081814</v>
-      </c>
-    </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>1</v>
-      </c>
-      <c r="I84" s="1">
-        <f>I80+I31+I17+I54+I10+I50+I76+I35+I72+I65+I58+I46+I39+I24+I6+I28+I14+I69+I62+I43+I21</f>
-        <v>5568392</v>
-      </c>
-      <c r="J84" s="1">
-        <f>J80+J31+J17+J54+J10+J50+J76+J35+J72+J65+J58+J46+J39+J24+J6+J28+J14+J69+J62+J43+J21</f>
-        <v>14925539328</v>
-      </c>
-      <c r="K84" s="1">
-        <f>J84/I84</f>
-        <v>2680.4038451315928</v>
-      </c>
-      <c r="M84" s="1">
-        <f>M80+M31+M17+M54+M10+M50+M76+M35+M72+M65+M58+M46+M39+M24+M6+M28+M14+M69+M62+M43+M21</f>
-        <v>2541496</v>
-      </c>
-      <c r="N84" s="1">
-        <f>N80+N31+N17+N54+N10+N50+N76+N35+N72+N65+N58+N46+N39+N24+N6+N28+N14+N69+N62+N43+N21</f>
-        <v>13690655284</v>
-      </c>
-      <c r="O84" s="1">
-        <f>N84/M84</f>
-        <v>5386.8490385190453</v>
-      </c>
-      <c r="Q84" s="1">
-        <f>Q80+Q31+Q17+Q54+Q10+Q50+Q76+Q35+Q72+Q65+Q58+Q46+Q39+Q24+Q6+Q28+Q14+Q69+Q62+Q43+Q21</f>
-        <v>333255</v>
-      </c>
-      <c r="R84" s="1">
-        <f>R80+R31+R17+R54+R10+R50+R76+R35+R72+R65+R58+R46+R39+R24+R6+R28+R14+R69+R62+R43+R21</f>
-        <v>5822503910</v>
-      </c>
-      <c r="S84" s="1">
-        <f>R84/Q84</f>
-        <v>17471.61756012663</v>
-      </c>
-      <c r="U84" s="1">
-        <f>U80+U31+U17+U54+U10+U50+U76+U35+U72+U65+U58+U46+U39+U24+U6+U28+U14+U69+U62+U43+U21</f>
-        <v>6736</v>
-      </c>
-      <c r="V84" s="1">
-        <f>V80+V31+V17+V54+V10+V50+V76+V35+V72+V65+V58+V46+V39+V24+V6+V28+V14+V69+V62+V43+V21</f>
-        <v>458518126</v>
-      </c>
-      <c r="W84" s="1">
-        <f>V84/U84</f>
-        <v>68069.793052256529</v>
-      </c>
-    </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>0</v>
-      </c>
-      <c r="I85" s="1">
-        <f>I81+I32+I18+I55+I11+I51+I77+I36+I73+I66+I59+I47+I40+I25+I7</f>
-        <v>22973893</v>
-      </c>
-      <c r="J85" s="1">
-        <f>J81+J32+J18+J55+J11+J51+J77+J36+J73+J66+J59+J47+J40+J25+J7</f>
-        <v>98826852410</v>
-      </c>
-      <c r="K85" s="1">
-        <f>J85/I85</f>
-        <v>4301.7024763717673</v>
-      </c>
-      <c r="M85" s="1">
-        <f>M81+M32+M18+M55+M11+M51+M77+M36+M73+M66+M59+M47+M40+M25+M7</f>
-        <v>14313268</v>
-      </c>
-      <c r="N85" s="1">
-        <f>N81+N32+N18+N55+N11+N51+N77+N36+N73+N66+N59+N47+N40+N25+N7</f>
-        <v>94557287217</v>
-      </c>
-      <c r="O85" s="1">
-        <f>N85/M85</f>
-        <v>6606.2681993378455</v>
-      </c>
-      <c r="Q85" s="1">
-        <f>Q81+Q32+Q18+Q55+Q11+Q51+Q77+Q36+Q73+Q66+Q59+Q47+Q40+Q25+Q7</f>
-        <v>2672224</v>
-      </c>
-      <c r="R85" s="1">
-        <f>R81+R32+R18+R55+R11+R51+R77+R36+R73+R66+R59+R47+R40+R25+R7</f>
-        <v>49195440300</v>
-      </c>
-      <c r="S85" s="1">
-        <f>R85/Q85</f>
-        <v>18409.923831235705</v>
-      </c>
-      <c r="U85" s="1">
-        <f>U81+U32+U18+U55+U11+U51+U77+U36+U73+U66+U59+U47+U40+U25+U7</f>
-        <v>71505</v>
-      </c>
-      <c r="V85" s="1">
-        <f>V81+V32+V18+V55+V11+V51+V77+V36+V73+V66+V59+V47+V40+V25+V7</f>
-        <v>4987358082</v>
-      </c>
-      <c r="W85" s="1">
-        <f>V85/U85</f>
-        <v>69748.382378854629</v>
-      </c>
-    </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="I87" s="6"/>
-      <c r="J87" s="6"/>
-    </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="I88" s="6"/>
-      <c r="J88" s="6"/>
+        <f>V81/U81</f>
+        <v>69859.937255148761</v>
+      </c>
+    </row>
+    <row r="83" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="I83" s="6"/>
+      <c r="J83" s="6"/>
+    </row>
+    <row r="84" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="I84" s="6"/>
+      <c r="J84" s="6"/>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" s="4"/>
+      <c r="B102" s="5"/>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103" s="4"/>
+      <c r="B103" s="5"/>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104" s="4"/>
+      <c r="B104" s="5"/>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105" s="4"/>
+      <c r="B105" s="5"/>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="4"/>
@@ -4353,11 +4185,9 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="4"/>
-      <c r="B113" s="5"/>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="4"/>
-      <c r="B114" s="5"/>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="4"/>
@@ -4372,20 +4202,6 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="4"/>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A119" s="4"/>
-      <c r="B119" s="5"/>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A120" s="4"/>
-      <c r="B120" s="5"/>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A121" s="4"/>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A122" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="5">
